--- a/plan/2018工作排期-潘士奇.xlsx
+++ b/plan/2018工作排期-潘士奇.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panshiqi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
   <si>
     <t>模块</t>
   </si>
@@ -274,6 +274,22 @@
     <t>搭建自己的docker仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>za-user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康险数据迁移【待定】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4232,6 +4248,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4247,9 +4290,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4258,30 +4298,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1207">
@@ -5799,7 +5815,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5852,31 +5868,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="43" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -5893,71 +5909,71 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="47" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
-      <c r="BS1" s="48"/>
-      <c r="BT1" s="48"/>
-      <c r="BU1" s="48"/>
-      <c r="BV1" s="48"/>
-      <c r="BW1" s="48"/>
-      <c r="BX1" s="48"/>
-      <c r="BY1" s="48"/>
-      <c r="BZ1" s="48"/>
-      <c r="CA1" s="48"/>
-      <c r="CB1" s="48"/>
-      <c r="CC1" s="48"/>
-      <c r="CD1" s="49"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="39"/>
+      <c r="BM1" s="39"/>
+      <c r="BN1" s="39"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="39"/>
+      <c r="BR1" s="39"/>
+      <c r="BS1" s="39"/>
+      <c r="BT1" s="39"/>
+      <c r="BU1" s="39"/>
+      <c r="BV1" s="39"/>
+      <c r="BW1" s="39"/>
+      <c r="BX1" s="39"/>
+      <c r="BY1" s="39"/>
+      <c r="BZ1" s="39"/>
+      <c r="CA1" s="39"/>
+      <c r="CB1" s="39"/>
+      <c r="CC1" s="39"/>
+      <c r="CD1" s="40"/>
       <c r="CE1" s="13"/>
       <c r="CF1" s="13"/>
       <c r="CG1" s="13"/>
@@ -5983,17 +5999,17 @@
       <c r="DA1" s="9"/>
     </row>
     <row r="2" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="51"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6238,15 +6254,15 @@
       <c r="DA2" s="9"/>
     </row>
     <row r="3" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="51"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
@@ -6501,10 +6517,10 @@
       <c r="DK3" s="4"/>
     </row>
     <row r="4" spans="1:115" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="21"/>
@@ -7167,6 +7183,18 @@
       <c r="CO15" s="12"/>
     </row>
     <row r="16" spans="1:115" x14ac:dyDescent="0.15">
+      <c r="A16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="J16" s="1"/>
       <c r="O16" s="1"/>
@@ -7492,11 +7520,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="V1:AY1"/>
-    <mergeCell ref="AZ1:CD1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="A4:B4"/>
@@ -7504,6 +7527,11 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="V1:AY1"/>
+    <mergeCell ref="AZ1:CD1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7566,22 +7594,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -7598,71 +7626,71 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="47" t="s">
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
-      <c r="BS1" s="48"/>
-      <c r="BT1" s="48"/>
-      <c r="BU1" s="48"/>
-      <c r="BV1" s="48"/>
-      <c r="BW1" s="48"/>
-      <c r="BX1" s="48"/>
-      <c r="BY1" s="48"/>
-      <c r="BZ1" s="48"/>
-      <c r="CA1" s="49"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="39"/>
+      <c r="BM1" s="39"/>
+      <c r="BN1" s="39"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="39"/>
+      <c r="BR1" s="39"/>
+      <c r="BS1" s="39"/>
+      <c r="BT1" s="39"/>
+      <c r="BU1" s="39"/>
+      <c r="BV1" s="39"/>
+      <c r="BW1" s="39"/>
+      <c r="BX1" s="39"/>
+      <c r="BY1" s="39"/>
+      <c r="BZ1" s="39"/>
+      <c r="CA1" s="40"/>
       <c r="CB1" s="13"/>
       <c r="CC1" s="13"/>
       <c r="CD1" s="13"/>
@@ -7688,12 +7716,12 @@
       <c r="CX1" s="29"/>
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7938,12 +7966,12 @@
       <c r="CX2" s="29"/>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>

--- a/plan/2018工作排期-潘士奇.xlsx
+++ b/plan/2018工作排期-潘士奇.xlsx
@@ -16,7 +16,7 @@
     <sheet name="学习计划" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划!$A$1:$CW$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划!$A$1:$CW$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="76">
   <si>
     <t>模块</t>
   </si>
@@ -290,12 +290,44 @@
     <t>健康险数据迁移【待定】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>潘士奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新员工域账号提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据日志入库优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>za-user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电报报修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +391,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00CC00"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00CC00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +472,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4142,7 +4220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4248,6 +4326,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4269,35 +4374,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1207">
@@ -5511,6 +5649,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC00"/>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5809,16 +5953,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DK25"/>
+  <dimension ref="A1:DK38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="AE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" style="25" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="2" customWidth="1"/>
@@ -5868,31 +6012,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="51" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -5909,71 +6053,71 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="39"/>
-      <c r="BX1" s="39"/>
-      <c r="BY1" s="39"/>
-      <c r="BZ1" s="39"/>
-      <c r="CA1" s="39"/>
-      <c r="CB1" s="39"/>
-      <c r="CC1" s="39"/>
-      <c r="CD1" s="40"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="48"/>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="48"/>
+      <c r="BV1" s="48"/>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="48"/>
+      <c r="BZ1" s="48"/>
+      <c r="CA1" s="48"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="49"/>
       <c r="CE1" s="13"/>
       <c r="CF1" s="13"/>
       <c r="CG1" s="13"/>
@@ -5999,17 +6143,17 @@
       <c r="DA1" s="9"/>
     </row>
     <row r="2" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6254,15 +6398,15 @@
       <c r="DA2" s="9"/>
     </row>
     <row r="3" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
@@ -6517,10 +6661,10 @@
       <c r="DK3" s="4"/>
     </row>
     <row r="4" spans="1:115" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="21"/>
@@ -6636,26 +6780,26 @@
       <c r="DK4" s="4"/>
     </row>
     <row r="5" spans="1:115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="19">
-        <v>2</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0</v>
+      <c r="A5" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="56">
+        <v>1</v>
       </c>
       <c r="J5" s="1"/>
       <c r="O5" s="1"/>
@@ -6665,14 +6809,13 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AH5" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AH5" s="5"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="12"/>
-      <c r="AM5" s="5" t="s">
+      <c r="AM5" s="70" t="s">
         <v>16</v>
       </c>
+      <c r="AN5" s="71"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="12"/>
       <c r="AX5" s="6"/>
@@ -6690,39 +6833,43 @@
       <c r="CN5" s="12"/>
       <c r="CO5" s="12"/>
     </row>
-    <row r="6" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="27">
-        <v>0</v>
+    <row r="6" spans="1:115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="52">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="56">
+        <v>1</v>
       </c>
       <c r="J6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="V6" s="6"/>
-      <c r="X6" s="17"/>
+      <c r="W6" s="12"/>
+      <c r="AB6" s="18"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
+      <c r="AH6" s="5"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="12"/>
-      <c r="AN6" s="5" t="s">
+      <c r="AM6" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN6" s="70" t="s">
         <v>16</v>
       </c>
       <c r="AQ6" s="6"/>
@@ -6743,43 +6890,23 @@
       <c r="CO6" s="12"/>
     </row>
     <row r="7" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="J7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="V7" s="6"/>
       <c r="W7" s="12"/>
-      <c r="Y7" s="17"/>
+      <c r="AA7" s="18"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
+      <c r="AF7" s="17"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="12"/>
-      <c r="AN7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="12"/>
       <c r="AX7" s="6"/>
@@ -6797,26 +6924,28 @@
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
     </row>
-    <row r="8" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:115" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="27">
+      <c r="G8" s="57">
+        <v>2</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="61">
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -6824,17 +6953,31 @@
       <c r="P8" s="1"/>
       <c r="V8" s="6"/>
       <c r="W8" s="12"/>
-      <c r="Z8" s="18"/>
+      <c r="AB8" s="18"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
+      <c r="AH8" s="63" t="s">
+        <v>16</v>
+      </c>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="12"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="5" t="s">
+      <c r="AM8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="65"/>
       <c r="BE8" s="6"/>
       <c r="BF8" s="12"/>
       <c r="BL8" s="6"/>
@@ -6848,47 +6991,56 @@
       <c r="CN8" s="12"/>
       <c r="CO8" s="12"/>
     </row>
-    <row r="9" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="9" spans="1:115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="27">
+      <c r="G9" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61">
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="12"/>
       <c r="X9" s="17"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="12"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="5" t="s">
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AS9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="65"/>
       <c r="BE9" s="6"/>
       <c r="BF9" s="12"/>
       <c r="BL9" s="6"/>
@@ -6902,26 +7054,28 @@
       <c r="CN9" s="12"/>
       <c r="CO9" s="12"/>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="19">
-        <v>3</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="G10" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="61">
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
@@ -6934,19 +7088,25 @@
       <c r="AD10" s="12"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="12"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="12"/>
-      <c r="AT10" s="5" t="s">
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AU10" s="5" t="s">
+      <c r="AO10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AV10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="68"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="67"/>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="66"/>
+      <c r="BA10" s="65"/>
       <c r="BE10" s="6"/>
       <c r="BF10" s="12"/>
       <c r="BL10" s="6"/>
@@ -6960,26 +7120,28 @@
       <c r="CN10" s="12"/>
       <c r="CO10" s="12"/>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="D11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="27">
+      <c r="G11" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="61">
         <v>0</v>
       </c>
       <c r="J11" s="1"/>
@@ -6987,19 +7149,28 @@
       <c r="P11" s="1"/>
       <c r="V11" s="6"/>
       <c r="W11" s="12"/>
-      <c r="Y11" s="13"/>
       <c r="Z11" s="18"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="12"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="12"/>
-      <c r="AW11" s="5" t="s">
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="67"/>
+      <c r="AY11" s="67"/>
+      <c r="AZ11" s="66"/>
+      <c r="BA11" s="65"/>
       <c r="BE11" s="6"/>
       <c r="BF11" s="12"/>
       <c r="BL11" s="6"/>
@@ -7013,26 +7184,28 @@
       <c r="CN11" s="12"/>
       <c r="CO11" s="12"/>
     </row>
-    <row r="12" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="27">
+      <c r="G12" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="61">
         <v>0</v>
       </c>
       <c r="J12" s="1"/>
@@ -7040,18 +7213,30 @@
       <c r="P12" s="1"/>
       <c r="V12" s="6"/>
       <c r="W12" s="12"/>
-      <c r="AA12" s="18"/>
+      <c r="X12" s="17"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="12"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="12"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="BA12" s="5" t="s">
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="64" t="s">
         <v>16</v>
       </c>
+      <c r="AS12" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="65"/>
       <c r="BE12" s="6"/>
       <c r="BF12" s="12"/>
       <c r="BL12" s="6"/>
@@ -7065,25 +7250,61 @@
       <c r="CN12" s="12"/>
       <c r="CO12" s="12"/>
     </row>
-    <row r="13" spans="1:115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="28"/>
-      <c r="D13" s="26"/>
-      <c r="F13" s="25"/>
+    <row r="13" spans="1:115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="57">
+        <v>3</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="61">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="V13" s="6"/>
       <c r="W13" s="12"/>
-      <c r="AB13" s="18"/>
+      <c r="Y13" s="17"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="12"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="12"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU13" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV13" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="66"/>
+      <c r="BA13" s="65"/>
       <c r="BE13" s="6"/>
       <c r="BF13" s="12"/>
       <c r="BL13" s="6"/>
@@ -7097,35 +7318,58 @@
       <c r="CN13" s="12"/>
       <c r="CO13" s="12"/>
     </row>
-    <row r="14" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="14" spans="1:115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="57">
+        <v>1</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="61">
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="V14" s="6"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="18"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="12"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="12"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="66"/>
+      <c r="BA14" s="65"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="12"/>
       <c r="BL14" s="6"/>
@@ -7139,36 +7383,57 @@
       <c r="CN14" s="12"/>
       <c r="CO14" s="12"/>
     </row>
-    <row r="15" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="26" t="s">
+    <row r="15" spans="1:115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="61">
+        <v>0</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="V15" s="6"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="12"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="12"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="66"/>
+      <c r="BA15" s="64" t="s">
+        <v>16</v>
+      </c>
       <c r="BE15" s="6"/>
       <c r="BF15" s="12"/>
       <c r="BL15" s="6"/>
@@ -7182,28 +7447,17 @@
       <c r="CN15" s="12"/>
       <c r="CO15" s="12"/>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>65</v>
-      </c>
+    <row r="16" spans="1:115" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="28"/>
+      <c r="D16" s="26"/>
       <c r="F16" s="25"/>
       <c r="J16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="V16" s="6"/>
       <c r="W16" s="12"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AJ16" s="6"/>
@@ -7225,22 +7479,47 @@
       <c r="CN16" s="12"/>
       <c r="CO16" s="12"/>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="D17" s="26"/>
-      <c r="F17" s="25"/>
+    <row r="17" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="V17" s="6"/>
       <c r="W17" s="12"/>
-      <c r="Y17" s="17"/>
-      <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
+      <c r="AH17" s="70" t="s">
+        <v>16</v>
+      </c>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="12"/>
+      <c r="AN17" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO17" s="69" t="s">
+        <v>16</v>
+      </c>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="12"/>
       <c r="AX17" s="6"/>
@@ -7258,21 +7537,42 @@
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="D18" s="26"/>
-      <c r="F18" s="25"/>
+    <row r="18" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="V18" s="6"/>
       <c r="W18" s="12"/>
-      <c r="Z18" s="18"/>
+      <c r="AB18" s="18"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="17"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="12"/>
+      <c r="AO18" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="12"/>
       <c r="AX18" s="6"/>
@@ -7290,24 +7590,45 @@
       <c r="CN18" s="12"/>
       <c r="CO18" s="12"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="D19" s="26"/>
-      <c r="F19" s="25"/>
+    <row r="19" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="V19" s="6"/>
       <c r="W19" s="12"/>
-      <c r="Z19" s="18"/>
+      <c r="AB19" s="18"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="12"/>
       <c r="AQ19" s="6"/>
-      <c r="AR19" s="12"/>
+      <c r="AR19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS19" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AX19" s="6"/>
       <c r="AY19" s="6"/>
       <c r="BE19" s="6"/>
@@ -7323,23 +7644,43 @@
       <c r="CN19" s="12"/>
       <c r="CO19" s="12"/>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="D20" s="26"/>
-      <c r="F20" s="25"/>
+    <row r="20" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="V20" s="6"/>
       <c r="W20" s="12"/>
-      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
-      <c r="AF20" s="17"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="12"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="12"/>
+      <c r="AS20" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AX20" s="6"/>
       <c r="AY20" s="6"/>
       <c r="BE20" s="6"/>
@@ -7355,24 +7696,46 @@
       <c r="CN20" s="12"/>
       <c r="CO20" s="12"/>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="D21" s="26"/>
-      <c r="F21" s="25"/>
+    <row r="21" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="27">
+        <v>0</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="V21" s="6"/>
       <c r="W21" s="12"/>
-      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="12"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="12"/>
+      <c r="AT21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU21" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AX21" s="6"/>
       <c r="AY21" s="6"/>
       <c r="BE21" s="6"/>
@@ -7388,10 +7751,28 @@
       <c r="CN21" s="12"/>
       <c r="CO21" s="12"/>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="D22" s="26"/>
-      <c r="F22" s="25"/>
+    <row r="22" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3</v>
+      </c>
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -7400,13 +7781,24 @@
       <c r="AB22" s="18"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
-      <c r="AG22" s="17"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="12"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="12"/>
+      <c r="AU22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AX22" s="6"/>
       <c r="AY22" s="6"/>
+      <c r="BA22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="BE22" s="6"/>
       <c r="BF22" s="12"/>
       <c r="BL22" s="6"/>
@@ -7420,10 +7812,28 @@
       <c r="CN22" s="12"/>
       <c r="CO22" s="12"/>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="D23" s="26"/>
-      <c r="F23" s="25"/>
+    <row r="23" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -7432,14 +7842,18 @@
       <c r="AB23" s="18"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="12"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="12"/>
       <c r="AX23" s="6"/>
       <c r="AY23" s="6"/>
+      <c r="BA23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB23" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="BE23" s="6"/>
       <c r="BF23" s="12"/>
       <c r="BL23" s="6"/>
@@ -7453,25 +7867,45 @@
       <c r="CN23" s="12"/>
       <c r="CO23" s="12"/>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="D24" s="26"/>
-      <c r="F24" s="25"/>
+    <row r="24" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="V24" s="6"/>
       <c r="W24" s="12"/>
+      <c r="AB24" s="18"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
-      <c r="AE24" s="17"/>
-      <c r="AH24" s="17"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="12"/>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="12"/>
       <c r="AX24" s="6"/>
       <c r="AY24" s="6"/>
+      <c r="BB24" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="BE24" s="6"/>
       <c r="BF24" s="12"/>
       <c r="BL24" s="6"/>
@@ -7485,8 +7919,9 @@
       <c r="CN24" s="12"/>
       <c r="CO24" s="12"/>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
+      <c r="B25" s="28"/>
       <c r="D25" s="26"/>
       <c r="F25" s="25"/>
       <c r="J25" s="1"/>
@@ -7494,11 +7929,9 @@
       <c r="P25" s="1"/>
       <c r="V25" s="6"/>
       <c r="W25" s="12"/>
+      <c r="AB25" s="18"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
-      <c r="AE25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="18"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="12"/>
       <c r="AQ25" s="6"/>
@@ -7518,8 +7951,466 @@
       <c r="CN25" s="12"/>
       <c r="CO25" s="12"/>
     </row>
+    <row r="26" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="28"/>
+      <c r="D26" s="26"/>
+      <c r="F26" s="25"/>
+      <c r="J26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="12"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="12"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="12"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="12"/>
+      <c r="BL26" s="6"/>
+      <c r="BM26" s="12"/>
+      <c r="BS26" s="6"/>
+      <c r="BT26" s="12"/>
+      <c r="BZ26" s="6"/>
+      <c r="CA26" s="12"/>
+      <c r="CG26" s="12"/>
+      <c r="CH26" s="12"/>
+      <c r="CN26" s="12"/>
+      <c r="CO26" s="12"/>
+    </row>
+    <row r="27" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="J27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="12"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="12"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="12"/>
+      <c r="BL27" s="6"/>
+      <c r="BM27" s="12"/>
+      <c r="BS27" s="6"/>
+      <c r="BT27" s="12"/>
+      <c r="BZ27" s="6"/>
+      <c r="CA27" s="12"/>
+      <c r="CG27" s="12"/>
+      <c r="CH27" s="12"/>
+      <c r="CN27" s="12"/>
+      <c r="CO27" s="12"/>
+    </row>
+    <row r="28" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="J28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="18"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="12"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="12"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="12"/>
+      <c r="BL28" s="6"/>
+      <c r="BM28" s="12"/>
+      <c r="BS28" s="6"/>
+      <c r="BT28" s="12"/>
+      <c r="BZ28" s="6"/>
+      <c r="CA28" s="12"/>
+      <c r="CG28" s="12"/>
+      <c r="CH28" s="12"/>
+      <c r="CN28" s="12"/>
+      <c r="CO28" s="12"/>
+    </row>
+    <row r="29" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="J29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="12"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="12"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="12"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="12"/>
+      <c r="BL29" s="6"/>
+      <c r="BM29" s="12"/>
+      <c r="BS29" s="6"/>
+      <c r="BT29" s="12"/>
+      <c r="BZ29" s="6"/>
+      <c r="CA29" s="12"/>
+      <c r="CG29" s="12"/>
+      <c r="CH29" s="12"/>
+      <c r="CN29" s="12"/>
+      <c r="CO29" s="12"/>
+    </row>
+    <row r="30" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+      <c r="D30" s="26"/>
+      <c r="F30" s="25"/>
+      <c r="J30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="12"/>
+      <c r="Y30" s="17"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="12"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="12"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="12"/>
+      <c r="BL30" s="6"/>
+      <c r="BM30" s="12"/>
+      <c r="BS30" s="6"/>
+      <c r="BT30" s="12"/>
+      <c r="BZ30" s="6"/>
+      <c r="CA30" s="12"/>
+      <c r="CG30" s="12"/>
+      <c r="CH30" s="12"/>
+      <c r="CN30" s="12"/>
+      <c r="CO30" s="12"/>
+    </row>
+    <row r="31" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="D31" s="26"/>
+      <c r="F31" s="25"/>
+      <c r="J31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="12"/>
+      <c r="Z31" s="18"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="17"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="12"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="12"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="12"/>
+      <c r="BL31" s="6"/>
+      <c r="BM31" s="12"/>
+      <c r="BS31" s="6"/>
+      <c r="BT31" s="12"/>
+      <c r="BZ31" s="6"/>
+      <c r="CA31" s="12"/>
+      <c r="CG31" s="12"/>
+      <c r="CH31" s="12"/>
+      <c r="CN31" s="12"/>
+      <c r="CO31" s="12"/>
+    </row>
+    <row r="32" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="D32" s="26"/>
+      <c r="F32" s="25"/>
+      <c r="J32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="12"/>
+      <c r="Z32" s="18"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="12"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="12"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="BE32" s="6"/>
+      <c r="BF32" s="12"/>
+      <c r="BL32" s="6"/>
+      <c r="BM32" s="12"/>
+      <c r="BS32" s="6"/>
+      <c r="BT32" s="12"/>
+      <c r="BZ32" s="6"/>
+      <c r="CA32" s="12"/>
+      <c r="CG32" s="12"/>
+      <c r="CH32" s="12"/>
+      <c r="CN32" s="12"/>
+      <c r="CO32" s="12"/>
+    </row>
+    <row r="33" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
+      <c r="D33" s="26"/>
+      <c r="F33" s="25"/>
+      <c r="J33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="12"/>
+      <c r="AA33" s="18"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AF33" s="17"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="12"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="12"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="BE33" s="6"/>
+      <c r="BF33" s="12"/>
+      <c r="BL33" s="6"/>
+      <c r="BM33" s="12"/>
+      <c r="BS33" s="6"/>
+      <c r="BT33" s="12"/>
+      <c r="BZ33" s="6"/>
+      <c r="CA33" s="12"/>
+      <c r="CG33" s="12"/>
+      <c r="CH33" s="12"/>
+      <c r="CN33" s="12"/>
+      <c r="CO33" s="12"/>
+    </row>
+    <row r="34" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="D34" s="26"/>
+      <c r="F34" s="25"/>
+      <c r="J34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="12"/>
+      <c r="AA34" s="18"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="12"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="12"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="6"/>
+      <c r="BE34" s="6"/>
+      <c r="BF34" s="12"/>
+      <c r="BL34" s="6"/>
+      <c r="BM34" s="12"/>
+      <c r="BS34" s="6"/>
+      <c r="BT34" s="12"/>
+      <c r="BZ34" s="6"/>
+      <c r="CA34" s="12"/>
+      <c r="CG34" s="12"/>
+      <c r="CH34" s="12"/>
+      <c r="CN34" s="12"/>
+      <c r="CO34" s="12"/>
+    </row>
+    <row r="35" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="D35" s="26"/>
+      <c r="F35" s="25"/>
+      <c r="J35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="12"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AG35" s="17"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="12"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="12"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="12"/>
+      <c r="BL35" s="6"/>
+      <c r="BM35" s="12"/>
+      <c r="BS35" s="6"/>
+      <c r="BT35" s="12"/>
+      <c r="BZ35" s="6"/>
+      <c r="CA35" s="12"/>
+      <c r="CG35" s="12"/>
+      <c r="CH35" s="12"/>
+      <c r="CN35" s="12"/>
+      <c r="CO35" s="12"/>
+    </row>
+    <row r="36" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="D36" s="26"/>
+      <c r="F36" s="25"/>
+      <c r="J36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="12"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="12"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="12"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="12"/>
+      <c r="BL36" s="6"/>
+      <c r="BM36" s="12"/>
+      <c r="BS36" s="6"/>
+      <c r="BT36" s="12"/>
+      <c r="BZ36" s="6"/>
+      <c r="CA36" s="12"/>
+      <c r="CG36" s="12"/>
+      <c r="CH36" s="12"/>
+      <c r="CN36" s="12"/>
+      <c r="CO36" s="12"/>
+    </row>
+    <row r="37" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="D37" s="26"/>
+      <c r="F37" s="25"/>
+      <c r="J37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="12"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="12"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="BE37" s="6"/>
+      <c r="BF37" s="12"/>
+      <c r="BL37" s="6"/>
+      <c r="BM37" s="12"/>
+      <c r="BS37" s="6"/>
+      <c r="BT37" s="12"/>
+      <c r="BZ37" s="6"/>
+      <c r="CA37" s="12"/>
+      <c r="CG37" s="12"/>
+      <c r="CH37" s="12"/>
+      <c r="CN37" s="12"/>
+      <c r="CO37" s="12"/>
+    </row>
+    <row r="38" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="D38" s="26"/>
+      <c r="F38" s="25"/>
+      <c r="J38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="12"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="12"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="BE38" s="6"/>
+      <c r="BF38" s="12"/>
+      <c r="BL38" s="6"/>
+      <c r="BM38" s="12"/>
+      <c r="BS38" s="6"/>
+      <c r="BT38" s="12"/>
+      <c r="BZ38" s="6"/>
+      <c r="CA38" s="12"/>
+      <c r="CG38" s="12"/>
+      <c r="CH38" s="12"/>
+      <c r="CN38" s="12"/>
+      <c r="CO38" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V1:AY1"/>
+    <mergeCell ref="AZ1:CD1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="A4:B4"/>
@@ -7527,11 +8418,6 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="V1:AY1"/>
-    <mergeCell ref="AZ1:CD1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7594,22 +8480,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -7626,71 +8512,71 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="38" t="s">
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="39"/>
-      <c r="BX1" s="39"/>
-      <c r="BY1" s="39"/>
-      <c r="BZ1" s="39"/>
-      <c r="CA1" s="40"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="48"/>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="48"/>
+      <c r="BV1" s="48"/>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="48"/>
+      <c r="BZ1" s="48"/>
+      <c r="CA1" s="49"/>
       <c r="CB1" s="13"/>
       <c r="CC1" s="13"/>
       <c r="CD1" s="13"/>
@@ -7716,12 +8602,12 @@
       <c r="CX1" s="29"/>
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7966,12 +8852,12 @@
       <c r="CX2" s="29"/>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>
